--- a/2019BTEIT00051 Assignment.xlsx
+++ b/2019BTEIT00051 Assignment.xlsx
@@ -117,9 +117,6 @@
     <t>sale in oct</t>
   </si>
   <si>
-    <t>festive season</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -135,16 +132,19 @@
     <t>MAX YoY-78%  M&amp;M</t>
   </si>
   <si>
-    <t>High sale in 2022 compared to 2021 because of festive season by 30%</t>
-  </si>
-  <si>
-    <t>Medium cost high sales compared to low cost cars</t>
-  </si>
-  <si>
     <t>Cost:Sales  Order-&gt;medium&gt;high&gt;lowcost</t>
   </si>
   <si>
     <t>YOY order:high&gt;low&gt;medium</t>
+  </si>
+  <si>
+    <t>Medium cost cars have high sales compared to low cost cars</t>
+  </si>
+  <si>
+    <t>festive season in oct</t>
+  </si>
+  <si>
+    <t>High sale in 2022 october compared to 2021 because of festive season by 30%</t>
   </si>
 </sst>
 </file>
@@ -488,7 +488,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="K9" sqref="K9:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,7 +497,7 @@
     <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" customWidth="1"/>
     <col min="10" max="10" width="21.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
     <col min="12" max="12" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -946,7 +946,7 @@
         <v>31</v>
       </c>
       <c r="K14" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="L14" t="s">
         <v>32</v>
@@ -961,7 +961,7 @@
         <v>2022</v>
       </c>
       <c r="K15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L15">
         <v>90151</v>
@@ -976,7 +976,7 @@
         <v>2021</v>
       </c>
       <c r="K16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L16">
         <v>69009</v>
@@ -988,22 +988,22 @@
     <row r="18" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F18" s="2"/>
       <c r="I18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" t="s">
         <v>36</v>
-      </c>
-      <c r="J18" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="19" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F19" s="2"/>
       <c r="J19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F20" s="2"/>
       <c r="J20" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="6:10" x14ac:dyDescent="0.25">
@@ -1015,13 +1015,13 @@
     <row r="22" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F22" s="2"/>
       <c r="J22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F23" s="2"/>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
